--- a/nav_history.xlsx
+++ b/nav_history.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Liquid Fund – NAV</t>
   </si>
   <si>
-    <t xml:space="preserve">Equity Fund -NAV</t>
+    <t xml:space="preserve">Equity Fund – NAV</t>
   </si>
   <si>
     <t xml:space="preserve">Jan 01, 1999</t>
@@ -809,11 +809,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -832,115 +833,20 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -948,23 +854,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -988,119 +879,25 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1112,7 +909,7 @@
   <dimension ref="A1:C258"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/nav_history.xlsx
+++ b/nav_history.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -29,42 +29,6 @@
   </si>
   <si>
     <t xml:space="preserve">Equity Fund – NAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 01, 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb 01, 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 01, 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apr 05, 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 03, 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun 01, 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jul 01, 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aug 02, 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 01, 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oct 01, 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov 01, 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec 01, 1999</t>
   </si>
   <si>
     <t xml:space="preserve">Jan 03, 2000</t>
@@ -891,12 +855,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -906,16 +870,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C258"/>
+  <dimension ref="A1:C246"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -933,10 +894,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>11.41</v>
+        <v>12.76</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>9.29</v>
+        <v>24.91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -944,10 +905,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>11.52</v>
+        <v>12.93</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>10.23</v>
+        <v>25.57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -955,10 +916,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>11.62</v>
+        <v>13.12</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>11.64</v>
+        <v>27.74</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -966,10 +927,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>11.74</v>
+        <v>13.224</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>12.62</v>
+        <v>24.13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -977,10 +938,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>11.84</v>
+        <v>13.33</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>11.14</v>
+        <v>20.78</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -988,10 +949,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>11.96</v>
+        <v>13.41</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>12.68</v>
+        <v>19.97</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -999,10 +960,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>12.07</v>
+        <v>13.521</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>13.09</v>
+        <v>22.39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1010,10 +971,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>12.18</v>
+        <v>13.61</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>15.3</v>
+        <v>18.69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1021,10 +982,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>12.31</v>
+        <v>13.75</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>17.36</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1032,10 +993,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>12.4</v>
+        <v>13.86</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>18.9</v>
+        <v>18.96</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1043,10 +1004,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>12.52</v>
+        <v>13.961</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>18.83</v>
+        <v>18.57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1054,10 +1015,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>12.64</v>
+        <v>14.062</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>21.03</v>
+        <v>18.93</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1065,10 +1026,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>12.76</v>
+        <v>14.17</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>24.91</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>12.93</v>
+        <v>14.289</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>25.57</v>
+        <v>19.67</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1087,10 +1048,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>13.12</v>
+        <v>14.39</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>27.74</v>
+        <v>19.66</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1098,10 +1059,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>13.224</v>
+        <v>14.508</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>24.13</v>
+        <v>16.16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1109,10 +1070,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>13.33</v>
+        <v>14.602</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>20.78</v>
+        <v>17.34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1120,10 +1081,10 @@
         <v>20</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>13.41</v>
+        <v>14.713</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>19.97</v>
+        <v>17.89</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1131,10 +1092,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>13.521</v>
+        <v>14.813</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>22.39</v>
+        <v>16.99</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1142,10 +1103,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>13.61</v>
+        <v>14.908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>18.69</v>
+        <v>16.14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1153,10 +1114,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>13.75</v>
+        <v>15.008</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>21.27</v>
+        <v>15.95</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1164,10 +1125,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>13.86</v>
+        <v>15.091</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>18.96</v>
+        <v>14.69</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1175,10 +1136,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>13.961</v>
+        <v>15.192</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>18.57</v>
+        <v>16.73</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1186,10 +1147,10 @@
         <v>26</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>14.062</v>
+        <v>15.293</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>18.93</v>
+        <v>18.17</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1197,10 +1158,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>14.17</v>
+        <v>15.387</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>18.8</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1208,10 +1169,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>14.289</v>
+        <v>15.486</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>19.67</v>
+        <v>19.64</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1219,10 +1180,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>14.39</v>
+        <v>15.572</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>19.66</v>
+        <v>21.92</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1230,10 +1191,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>14.508</v>
+        <v>15.673</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>16.16</v>
+        <v>22.59</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1241,10 +1202,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>14.602</v>
+        <v>15.765</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>17.34</v>
+        <v>22.94</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1252,10 +1213,10 @@
         <v>32</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>14.713</v>
+        <v>15.863</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>17.89</v>
+        <v>21.53</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1263,10 +1224,10 @@
         <v>33</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>14.813</v>
+        <v>15.954</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>16.99</v>
+        <v>22.31</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1274,10 +1235,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>14.908</v>
+        <v>16.053</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>16.14</v>
+        <v>20.86</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1285,10 +1246,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>15.008</v>
+        <v>16.144</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>15.95</v>
+        <v>21.63</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1296,10 +1257,10 @@
         <v>36</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>15.091</v>
+        <v>16.234</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>14.69</v>
+        <v>19.82</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1307,10 +1268,10 @@
         <v>37</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>15.192</v>
+        <v>16.329</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>16.73</v>
+        <v>20.08</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1318,10 +1279,10 @@
         <v>38</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>15.293</v>
+        <v>16.421</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>18.17</v>
+        <v>21.44</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,10 +1290,10 @@
         <v>39</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>15.387</v>
+        <v>16.518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>18.2</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1340,10 +1301,10 @@
         <v>40</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>15.486</v>
+        <v>16.606</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>19.64</v>
+        <v>22.87</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1351,10 +1312,10 @@
         <v>41</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>15.572</v>
+        <v>16.677</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>21.92</v>
+        <v>23.37</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1362,10 +1323,10 @@
         <v>42</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>15.673</v>
+        <v>16.759</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>22.59</v>
+        <v>22.39</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1373,10 +1334,10 @@
         <v>43</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>15.765</v>
+        <v>16.833</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>22.94</v>
+        <v>23.93</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1384,10 +1345,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>15.863</v>
+        <v>16.908</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>21.53</v>
+        <v>26.24</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1395,10 +1356,10 @@
         <v>45</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>15.954</v>
+        <v>16.983</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>22.31</v>
+        <v>29.795</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1406,10 +1367,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>16.053</v>
+        <v>17.054</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>20.86</v>
+        <v>32.041</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1417,10 +1378,10 @@
         <v>47</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>16.144</v>
+        <v>17.127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>21.63</v>
+        <v>37.539</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1428,10 +1389,10 @@
         <v>48</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>16.234</v>
+        <v>17.193</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>19.82</v>
+        <v>38.983</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1439,10 +1400,10 @@
         <v>49</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>16.329</v>
+        <v>17.263</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>20.08</v>
+        <v>44.741</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1450,10 +1411,10 @@
         <v>50</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>16.421</v>
+        <v>17.325</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>21.44</v>
+        <v>46.774</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1461,10 +1422,10 @@
         <v>51</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>16.518</v>
+        <v>17.387</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>22.9</v>
+        <v>52.286</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,10 +1433,10 @@
         <v>52</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>16.606</v>
+        <v>17.448</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>22.87</v>
+        <v>49.582</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1483,10 +1444,10 @@
         <v>53</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>16.677</v>
+        <v>17.504</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>23.37</v>
+        <v>52.93</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1494,10 +1455,10 @@
         <v>54</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>16.759</v>
+        <v>17.565</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>22.39</v>
+        <v>53.294</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1505,10 +1466,10 @@
         <v>55</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>16.833</v>
+        <v>17.627</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>23.93</v>
+        <v>53.258</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1516,10 +1477,10 @@
         <v>56</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>16.908</v>
+        <v>17.687</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>26.24</v>
+        <v>46.045</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1527,10 +1488,10 @@
         <v>57</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>16.983</v>
+        <v>17.745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>29.795</v>
+        <v>46.318</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1538,10 +1499,10 @@
         <v>58</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>17.054</v>
+        <v>17.806</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>32.041</v>
+        <v>49.396</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1549,10 +1510,10 @@
         <v>59</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>17.127</v>
+        <v>17.868</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>37.539</v>
+        <v>51.902</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1560,10 +1521,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>17.193</v>
+        <v>17.929</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>38.983</v>
+        <v>55.598</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1571,10 +1532,10 @@
         <v>61</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>17.263</v>
+        <v>17.992</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44.741</v>
+        <v>55.338</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1582,10 +1543,10 @@
         <v>62</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>17.325</v>
+        <v>18.061</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46.774</v>
+        <v>60.356</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1593,10 +1554,10 @@
         <v>63</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>17.387</v>
+        <v>18.129</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>52.286</v>
+        <v>66.387</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,10 +1565,10 @@
         <v>64</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>17.448</v>
+        <v>18.197</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>49.582</v>
+        <v>63.951</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1615,10 +1576,10 @@
         <v>65</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>17.504</v>
+        <v>18.262</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>52.93</v>
+        <v>67.761</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1626,10 +1587,10 @@
         <v>66</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>17.565</v>
+        <v>18.333</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>53.294</v>
+        <v>68.24</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1637,10 +1598,10 @@
         <v>67</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>17.627</v>
+        <v>18.406</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>53.258</v>
+        <v>65.484</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1648,10 +1609,10 @@
         <v>68</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>17.687</v>
+        <v>18.482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46.045</v>
+        <v>71.78</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1659,10 +1620,10 @@
         <v>69</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>17.745</v>
+        <v>18.556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46.318</v>
+        <v>74.338</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1670,10 +1631,10 @@
         <v>70</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>17.806</v>
+        <v>18.631</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>49.396</v>
+        <v>80.94</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1681,10 +1642,10 @@
         <v>71</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>17.868</v>
+        <v>18.708</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>51.902</v>
+        <v>85.992</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1692,10 +1653,10 @@
         <v>72</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>17.929</v>
+        <v>18.781</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>55.598</v>
+        <v>94.324</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1703,10 +1664,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>17.992</v>
+        <v>18.858</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>55.338</v>
+        <v>89.329</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1714,10 +1675,10 @@
         <v>74</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>18.061</v>
+        <v>18.934</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>60.356</v>
+        <v>100.945</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1725,10 +1686,10 @@
         <v>75</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>18.129</v>
+        <v>19.014</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>66.387</v>
+        <v>107.188</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1736,10 +1697,10 @@
         <v>76</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>18.197</v>
+        <v>19.096</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>63.951</v>
+        <v>112.483</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1747,10 +1708,10 @@
         <v>77</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>18.262</v>
+        <v>19.168</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>67.761</v>
+        <v>119.495</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1758,10 +1719,10 @@
         <v>78</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>18.333</v>
+        <v>19.255</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>68.24</v>
+        <v>130.819</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1769,10 +1730,10 @@
         <v>79</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>18.406</v>
+        <v>19.34</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>65.484</v>
+        <v>134.053</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1780,10 +1741,10 @@
         <v>80</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>18.482</v>
+        <v>19.433</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>71.78</v>
+        <v>112.327</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1791,10 +1752,10 @@
         <v>81</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>18.556</v>
+        <v>19.524</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>74.338</v>
+        <v>114.59</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1802,10 +1763,10 @@
         <v>82</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>18.631</v>
+        <v>19.62</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>80.94</v>
+        <v>115.648</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1813,10 +1774,10 @@
         <v>83</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>18.708</v>
+        <v>19.729</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>85.992</v>
+        <v>128.063</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1824,10 +1785,10 @@
         <v>84</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>18.781</v>
+        <v>19.833</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>94.324</v>
+        <v>132.634</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1835,10 +1796,10 @@
         <v>85</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>18.858</v>
+        <v>19.957</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>89.329</v>
+        <v>140.191</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1846,10 +1807,10 @@
         <v>86</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>18.934</v>
+        <v>20.07</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>100.945</v>
+        <v>147.937</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,10 +1818,10 @@
         <v>87</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>19.014</v>
+        <v>20.197</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>107.188</v>
+        <v>147.286</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1868,10 +1829,10 @@
         <v>88</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>19.096</v>
+        <v>20.326</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>112.483</v>
+        <v>152.415</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1879,10 +1840,10 @@
         <v>89</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>19.168</v>
+        <v>20.446</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>119.495</v>
+        <v>143.676</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1890,10 +1851,10 @@
         <v>90</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>19.255</v>
+        <v>20.604</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>130.819</v>
+        <v>136.747</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1901,10 +1862,10 @@
         <v>91</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>19.34</v>
+        <v>20.752</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>134.053</v>
+        <v>153.169</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1912,10 +1873,10 @@
         <v>92</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>19.433</v>
+        <v>20.882</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>112.327</v>
+        <v>161.903</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1923,10 +1884,10 @@
         <v>93</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>19.524</v>
+        <v>20.968</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>114.59</v>
+        <v>166.647</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1934,10 +1895,10 @@
         <v>94</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>19.62</v>
+        <v>21.048</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>115.648</v>
+        <v>165.817</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1945,10 +1906,10 @@
         <v>95</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>19.729</v>
+        <v>21.165</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>128.063</v>
+        <v>170.663</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1956,10 +1917,10 @@
         <v>96</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>19.833</v>
+        <v>21.284</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>132.634</v>
+        <v>184.165</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1967,10 +1928,10 @@
         <v>97</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>19.957</v>
+        <v>21.401</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>140.191</v>
+        <v>209.25</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1978,10 +1939,10 @@
         <v>98</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>20.07</v>
+        <v>21.541</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>147.937</v>
+        <v>207.921</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,10 +1950,10 @@
         <v>99</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>20.197</v>
+        <v>21.692</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>147.286</v>
+        <v>224.592</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2000,10 +1961,10 @@
         <v>100</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>20.326</v>
+        <v>21.844</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>152.415</v>
+        <v>191.075</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2011,10 +1972,10 @@
         <v>101</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>20.446</v>
+        <v>21.979</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>143.676</v>
+        <v>180.716</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2022,10 +1983,10 @@
         <v>102</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>20.604</v>
+        <v>22.131</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>136.747</v>
+        <v>164.836</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2033,10 +1994,10 @@
         <v>103</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>20.752</v>
+        <v>22.275</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>153.169</v>
+        <v>180.49</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2044,10 +2005,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>20.882</v>
+        <v>22.429</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>161.903</v>
+        <v>167.237</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2055,10 +2016,10 @@
         <v>105</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>20.968</v>
+        <v>22.585</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>166.647</v>
+        <v>138.421</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,10 +2027,10 @@
         <v>106</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>21.048</v>
+        <v>22.753</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>165.817</v>
+        <v>154.555</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2077,10 +2038,10 @@
         <v>107</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>21.165</v>
+        <v>22.931</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>170.663</v>
+        <v>159.231</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2088,10 +2049,10 @@
         <v>108</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>21.284</v>
+        <v>23.108</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>184.165</v>
+        <v>147.099</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2099,10 +2060,10 @@
         <v>109</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>21.401</v>
+        <v>23.307</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>209.25</v>
+        <v>114.164</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2110,10 +2071,10 @@
         <v>110</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>21.541</v>
+        <v>23.485</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>207.921</v>
+        <v>99.637</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2121,10 +2082,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>21.692</v>
+        <v>23.655</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>224.592</v>
+        <v>114.522</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2132,10 +2093,10 @@
         <v>112</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>21.844</v>
+        <v>23.805</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>191.075</v>
+        <v>101.243</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2143,10 +2104,10 @@
         <v>113</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>21.979</v>
+        <v>23.923</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>180.716</v>
+        <v>96.225</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2154,10 +2115,10 @@
         <v>114</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>22.131</v>
+        <v>24.056</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>164.836</v>
+        <v>110.148</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2165,10 +2126,10 @@
         <v>115</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>22.275</v>
+        <v>24.166</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>180.49</v>
+        <v>132.95</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2176,10 +2137,10 @@
         <v>116</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>22.429</v>
+        <v>24.268</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>167.237</v>
+        <v>170.367</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,10 +2148,10 @@
         <v>117</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>22.585</v>
+        <v>24.366</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>138.421</v>
+        <v>174.853</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2198,10 +2159,10 @@
         <v>118</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>22.753</v>
+        <v>24.462</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>154.555</v>
+        <v>189.073</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2209,10 +2170,10 @@
         <v>119</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>22.931</v>
+        <v>24.544</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>159.231</v>
+        <v>190.901</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2220,10 +2181,10 @@
         <v>120</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>23.108</v>
+        <v>24.621</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>147.099</v>
+        <v>211.262</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2231,10 +2192,10 @@
         <v>121</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>23.307</v>
+        <v>24.704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>114.164</v>
+        <v>205.158</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2242,10 +2203,10 @@
         <v>122</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>23.485</v>
+        <v>24.781</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>99.637</v>
+        <v>227.745</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2253,10 +2214,10 @@
         <v>123</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>23.655</v>
+        <v>24.862</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>114.522</v>
+        <v>232.55</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2264,10 +2225,10 @@
         <v>124</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>23.805</v>
+        <v>24.946</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>101.243</v>
+        <v>224.975</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2275,10 +2236,10 @@
         <v>125</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>23.923</v>
+        <v>25.019</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>96.225</v>
+        <v>227.393</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2286,10 +2247,10 @@
         <v>126</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>24.056</v>
+        <v>25.104</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>110.148</v>
+        <v>238.333</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2297,10 +2258,10 @@
         <v>127</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>24.166</v>
+        <v>25.191</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>132.95</v>
+        <v>243.462</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2308,10 +2269,10 @@
         <v>128</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>24.268</v>
+        <v>25.289</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>170.367</v>
+        <v>237.625</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2319,10 +2280,10 @@
         <v>129</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>24.366</v>
+        <v>25.387</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>174.853</v>
+        <v>251.391</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2330,10 +2291,10 @@
         <v>130</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>24.462</v>
+        <v>25.509</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>189.073</v>
+        <v>265.827</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2341,10 +2302,10 @@
         <v>131</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>24.544</v>
+        <v>25.633</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>190.901</v>
+        <v>276.3</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2352,10 +2313,10 @@
         <v>132</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>24.621</v>
+        <v>25.761</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>211.262</v>
+        <v>300.516</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2363,10 +2324,10 @@
         <v>133</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>24.704</v>
+        <v>25.913</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>205.158</v>
+        <v>306.968</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2374,10 +2335,10 @@
         <v>134</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>24.781</v>
+        <v>26.064</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>227.745</v>
+        <v>302.126</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2385,10 +2346,10 @@
         <v>135</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>24.862</v>
+        <v>26.23</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>232.55</v>
+        <v>299.82</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2396,10 +2357,10 @@
         <v>136</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>24.946</v>
+        <v>26.407</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>224.975</v>
+        <v>269.28</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2407,10 +2368,10 @@
         <v>137</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>25.019</v>
+        <v>26.571</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>227.393</v>
+        <v>268.955</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2418,10 +2379,10 @@
         <v>138</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>25.104</v>
+        <v>26.763</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>238.333</v>
+        <v>282.661</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2429,10 +2390,10 @@
         <v>139</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>25.191</v>
+        <v>26.948</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>243.462</v>
+        <v>282.884</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2440,10 +2401,10 @@
         <v>140</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>25.289</v>
+        <v>27.144</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>237.625</v>
+        <v>280.639</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2451,10 +2412,10 @@
         <v>141</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>25.387</v>
+        <v>27.338</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>251.391</v>
+        <v>281.054</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2462,10 +2423,10 @@
         <v>142</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>25.509</v>
+        <v>27.542</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>265.827</v>
+        <v>277.627</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2473,10 +2434,10 @@
         <v>143</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>25.633</v>
+        <v>27.746</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>276.3</v>
+        <v>250.654</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2484,10 +2445,10 @@
         <v>144</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>25.761</v>
+        <v>27.945</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>300.516</v>
+        <v>241.609</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2495,10 +2456,10 @@
         <v>145</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>25.913</v>
+        <v>28.158</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>306.968</v>
+        <v>253.725</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2506,10 +2467,10 @@
         <v>146</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>26.064</v>
+        <v>28.365</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>302.126</v>
+        <v>235.852</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2517,10 +2478,10 @@
         <v>147</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>26.23</v>
+        <v>28.584</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>299.82</v>
+        <v>219.412</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2528,10 +2489,10 @@
         <v>148</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>26.407</v>
+        <v>28.812</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>269.28</v>
+        <v>250.951</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2539,10 +2500,10 @@
         <v>149</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>26.571</v>
+        <v>29.027</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>268.955</v>
+        <v>262.208</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2550,10 +2511,10 @@
         <v>150</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>26.763</v>
+        <v>29.271</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>282.661</v>
+        <v>263.292</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2561,10 +2522,10 @@
         <v>151</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>26.948</v>
+        <v>29.515</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>282.884</v>
+        <v>258.531</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2572,10 +2533,10 @@
         <v>152</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>27.144</v>
+        <v>29.759</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>280.639</v>
+        <v>239.437</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2583,10 +2544,10 @@
         <v>153</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>27.338</v>
+        <v>29.986</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>281.054</v>
+        <v>258.345</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2594,10 +2555,10 @@
         <v>154</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>27.542</v>
+        <v>30.2204</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>277.627</v>
+        <v>255.738</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2605,10 +2566,10 @@
         <v>155</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>27.746</v>
+        <v>30.4553</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>250.654</v>
+        <v>248.133</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2616,10 +2577,10 @@
         <v>156</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>27.945</v>
+        <v>30.6687</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>241.609</v>
+        <v>278.462</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2627,10 +2588,10 @@
         <v>157</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>28.158</v>
+        <v>30.8828</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>253.725</v>
+        <v>274.158</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2638,10 +2599,10 @@
         <v>158</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>28.365</v>
+        <v>31.0964</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>235.852</v>
+        <v>285.635</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2649,10 +2610,10 @@
         <v>159</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>28.584</v>
+        <v>31.321</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>219.412</v>
+        <v>296.876</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2660,10 +2621,10 @@
         <v>160</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>28.812</v>
+        <v>31.5468</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>250.951</v>
+        <v>298.902</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2671,10 +2632,10 @@
         <v>161</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>29.027</v>
+        <v>31.7488</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>262.208</v>
+        <v>275.814</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2682,10 +2643,10 @@
         <v>162</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>29.271</v>
+        <v>31.987</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>263.292</v>
+        <v>272.427</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2693,10 +2654,10 @@
         <v>163</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>29.515</v>
+        <v>32.2182</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>258.531</v>
+        <v>285.121</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2704,10 +2665,10 @@
         <v>164</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>29.759</v>
+        <v>32.4549</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>239.437</v>
+        <v>281.692</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2715,10 +2676,10 @@
         <v>165</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>29.986</v>
+        <v>32.6647</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>258.345</v>
+        <v>272.429</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2726,10 +2687,10 @@
         <v>166</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>30.2204</v>
+        <v>32.8392</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>255.738</v>
+        <v>250.802</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2737,10 +2698,10 @@
         <v>167</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>30.4553</v>
+        <v>33.1423</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>248.133</v>
+        <v>246.127</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2748,10 +2709,10 @@
         <v>168</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>30.6687</v>
+        <v>33.4345</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>278.462</v>
+        <v>257.906</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2759,10 +2720,10 @@
         <v>169</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>30.8828</v>
+        <v>33.72</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>274.158</v>
+        <v>289.535</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2770,10 +2731,10 @@
         <v>170</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>31.0964</v>
+        <v>33.9771</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>285.635</v>
+        <v>292.966</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2781,10 +2742,10 @@
         <v>171</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>31.321</v>
+        <v>34.2365</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>296.876</v>
+        <v>304.88</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2792,10 +2753,10 @@
         <v>172</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>31.5468</v>
+        <v>34.4982</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>298.902</v>
+        <v>285.489</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2803,10 +2764,10 @@
         <v>173</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>31.7488</v>
+        <v>34.7263</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>275.814</v>
+        <v>300.386</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2814,10 +2775,10 @@
         <v>174</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>31.987</v>
+        <v>35.0053</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>272.427</v>
+        <v>332.276</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2825,10 +2786,10 @@
         <v>175</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>32.2182</v>
+        <v>35.268</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>285.121</v>
+        <v>341.047</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2836,10 +2797,10 @@
         <v>176</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>32.4549</v>
+        <v>35.5328</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>281.692</v>
+        <v>401.693</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2847,10 +2808,10 @@
         <v>177</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>32.6647</v>
+        <v>35.7856</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>272.429</v>
+        <v>424.815</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2858,10 +2819,10 @@
         <v>178</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>32.8392</v>
+        <v>36.045</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>250.802</v>
+        <v>415.751</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2869,10 +2830,10 @@
         <v>179</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>33.1423</v>
+        <v>36.3051</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>246.127</v>
+        <v>444.085</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2880,10 +2841,10 @@
         <v>180</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>33.4345</v>
+        <v>36.5644</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>257.906</v>
+        <v>441.964</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2891,10 +2852,10 @@
         <v>181</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>33.72</v>
+        <v>36.8442</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>289.535</v>
+        <v>465.238</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2902,10 +2863,10 @@
         <v>182</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>33.9771</v>
+        <v>37.0937</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>292.966</v>
+        <v>483.804</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2913,10 +2874,10 @@
         <v>183</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>34.2365</v>
+        <v>37.3629</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>304.88</v>
+        <v>469.89</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2924,10 +2885,10 @@
         <v>184</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>34.4982</v>
+        <v>37.631</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>285.489</v>
+        <v>489.07</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2935,10 +2896,10 @@
         <v>185</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>34.7263</v>
+        <v>37.8732</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>300.386</v>
+        <v>489.247</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2946,10 +2907,10 @@
         <v>186</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>35.0053</v>
+        <v>38.1663</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>332.276</v>
+        <v>474.44</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2957,10 +2918,10 @@
         <v>187</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>35.268</v>
+        <v>38.4521</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>341.047</v>
+        <v>466.968</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2968,10 +2929,10 @@
         <v>188</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>35.5328</v>
+        <v>38.7078</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>401.693</v>
+        <v>469.377</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2979,10 +2940,10 @@
         <v>189</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>35.7856</v>
+        <v>38.9693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>424.815</v>
+        <v>470.872</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2990,10 +2951,10 @@
         <v>190</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>36.045</v>
+        <v>39.2333</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>415.751</v>
+        <v>485.185</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3001,10 +2962,10 @@
         <v>191</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>36.3051</v>
+        <v>39.4921</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>444.085</v>
+        <v>436.425</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3012,10 +2973,10 @@
         <v>192</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>36.5644</v>
+        <v>39.7485</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>441.964</v>
+        <v>444.744</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3023,10 +2984,10 @@
         <v>193</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>36.8442</v>
+        <v>40.0058</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>465.238</v>
+        <v>450.833</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3034,10 +2995,10 @@
         <v>194</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>37.0937</v>
+        <v>40.2529</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>483.804</v>
+        <v>453.931</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3045,10 +3006,10 @@
         <v>195</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>37.3629</v>
+        <v>40.5137</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>469.89</v>
+        <v>448.009</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3056,10 +3017,10 @@
         <v>196</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>37.631</v>
+        <v>40.7713</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>489.07</v>
+        <v>401.896</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3067,10 +3028,10 @@
         <v>197</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>37.8732</v>
+        <v>41.02</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>489.247</v>
+        <v>374.48</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3078,10 +3039,10 @@
         <v>198</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>38.1663</v>
+        <v>41.3371</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>474.44</v>
+        <v>417.048</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3089,10 +3050,10 @@
         <v>199</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>38.4521</v>
+        <v>41.6142</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>466.968</v>
+        <v>426.687</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3100,10 +3061,10 @@
         <v>200</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>38.7078</v>
+        <v>41.8922</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>469.377</v>
+        <v>444.923</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3111,10 +3072,10 @@
         <v>201</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>38.9693</v>
+        <v>42.1554</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>470.872</v>
+        <v>462.65</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3122,10 +3083,10 @@
         <v>202</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>39.2333</v>
+        <v>42.4172</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>485.185</v>
+        <v>482.787</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3133,10 +3094,10 @@
         <v>203</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>39.4921</v>
+        <v>42.6707</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>436.425</v>
+        <v>496.611</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3144,10 +3105,10 @@
         <v>204</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>39.7485</v>
+        <v>42.9132</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>444.744</v>
+        <v>507.624</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3155,10 +3116,10 @@
         <v>205</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>40.0058</v>
+        <v>43.163</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>450.833</v>
+        <v>511.317</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3166,10 +3127,10 @@
         <v>206</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>40.2529</v>
+        <v>43.4067</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>453.931</v>
+        <v>486.423</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3177,10 +3138,10 @@
         <v>207</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>40.5137</v>
+        <v>43.6483</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>448.009</v>
+        <v>477.662</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3188,10 +3149,10 @@
         <v>208</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>40.7713</v>
+        <v>43.8935</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>401.896</v>
+        <v>518.06</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3199,10 +3160,10 @@
         <v>209</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>41.02</v>
+        <v>44.1147</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>374.48</v>
+        <v>526.329</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3210,10 +3171,10 @@
         <v>210</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>41.3371</v>
+        <v>44.3724</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>417.048</v>
+        <v>550.489</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3221,10 +3182,10 @@
         <v>211</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>41.6142</v>
+        <v>44.6112</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>426.687</v>
+        <v>562.974</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3232,10 +3193,10 @@
         <v>212</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>41.8922</v>
+        <v>44.863</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>444.923</v>
+        <v>575.081</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3243,10 +3204,10 @@
         <v>213</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>42.1554</v>
+        <v>45.1063</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>462.65</v>
+        <v>574.452</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3254,10 +3215,10 @@
         <v>214</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>42.4172</v>
+        <v>45.3605</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>482.787</v>
+        <v>607.004</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3265,10 +3226,10 @@
         <v>215</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>42.6707</v>
+        <v>45.609</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>496.611</v>
+        <v>592.776</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3276,10 +3237,10 @@
         <v>216</v>
       </c>
       <c r="B215" s="0" t="n">
-        <v>42.9132</v>
+        <v>45.8491</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>507.624</v>
+        <v>579.434</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3287,10 +3248,10 @@
         <v>217</v>
       </c>
       <c r="B216" s="0" t="n">
-        <v>43.163</v>
+        <v>46.0949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>511.317</v>
+        <v>637.684</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3298,10 +3259,10 @@
         <v>218</v>
       </c>
       <c r="B217" s="0" t="n">
-        <v>43.4067</v>
+        <v>46.3315</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>486.423</v>
+        <v>627.923</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3309,10 +3270,10 @@
         <v>219</v>
       </c>
       <c r="B218" s="0" t="n">
-        <v>43.6483</v>
+        <v>46.5835</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>477.662</v>
+        <v>649.546</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3320,10 +3281,10 @@
         <v>220</v>
       </c>
       <c r="B219" s="0" t="n">
-        <v>43.8935</v>
+        <v>46.8427</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>518.06</v>
+        <v>668.625</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3331,10 +3292,10 @@
         <v>221</v>
       </c>
       <c r="B220" s="0" t="n">
-        <v>44.1147</v>
+        <v>47.0794</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>526.329</v>
+        <v>620.869</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3342,10 +3303,10 @@
         <v>222</v>
       </c>
       <c r="B221" s="0" t="n">
-        <v>44.3724</v>
+        <v>47.3847</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>550.489</v>
+        <v>595.02</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3353,10 +3314,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="0" t="n">
-        <v>44.6112</v>
+        <v>47.65</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>562.974</v>
+        <v>617.613</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3364,10 +3325,10 @@
         <v>224</v>
       </c>
       <c r="B223" s="0" t="n">
-        <v>44.863</v>
+        <v>47.9276</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>575.081</v>
+        <v>606.459</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3375,10 +3336,10 @@
         <v>225</v>
       </c>
       <c r="B224" s="0" t="n">
-        <v>45.1063</v>
+        <v>48.2242</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>574.452</v>
+        <v>589.637</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3386,10 +3347,10 @@
         <v>226</v>
       </c>
       <c r="B225" s="0" t="n">
-        <v>45.3605</v>
+        <v>48.5241</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>607.004</v>
+        <v>631.904</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3397,10 +3358,10 @@
         <v>227</v>
       </c>
       <c r="B226" s="0" t="n">
-        <v>45.609</v>
+        <v>48.829</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>592.776</v>
+        <v>660.001</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3408,10 +3369,10 @@
         <v>228</v>
       </c>
       <c r="B227" s="0" t="n">
-        <v>45.8491</v>
+        <v>49.1092</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>579.434</v>
+        <v>620.847</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3419,10 +3380,10 @@
         <v>229</v>
       </c>
       <c r="B228" s="0" t="n">
-        <v>46.0949</v>
+        <v>49.4213</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>637.684</v>
+        <v>612.631</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3430,10 +3391,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="0" t="n">
-        <v>46.3315</v>
+        <v>49.7369</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>627.923</v>
+        <v>620.585</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3441,10 +3402,10 @@
         <v>231</v>
       </c>
       <c r="B230" s="0" t="n">
-        <v>46.5835</v>
+        <v>50.0389</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>649.546</v>
+        <v>634.05</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3452,10 +3413,10 @@
         <v>232</v>
       </c>
       <c r="B231" s="0" t="n">
-        <v>46.8427</v>
+        <v>50.3411</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>668.625</v>
+        <v>625.554</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3463,10 +3424,10 @@
         <v>233</v>
       </c>
       <c r="B232" s="0" t="n">
-        <v>47.0794</v>
+        <v>50.6092</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>620.869</v>
+        <v>623.452</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3474,10 +3435,10 @@
         <v>234</v>
       </c>
       <c r="B233" s="0" t="n">
-        <v>47.3847</v>
+        <v>50.9479</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>595.02</v>
+        <v>683.678</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3485,10 +3446,10 @@
         <v>235</v>
       </c>
       <c r="B234" s="0" t="n">
-        <v>47.65</v>
+        <v>51.2524</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>617.613</v>
+        <v>669.575</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3496,10 +3457,10 @@
         <v>236</v>
       </c>
       <c r="B235" s="0" t="n">
-        <v>47.9276</v>
+        <v>51.5681</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>606.459</v>
+        <v>702.286</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3507,10 +3468,10 @@
         <v>237</v>
       </c>
       <c r="B236" s="0" t="n">
-        <v>48.2242</v>
+        <v>51.854</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>589.637</v>
+        <v>700.086</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3518,10 +3479,10 @@
         <v>238</v>
       </c>
       <c r="B237" s="0" t="n">
-        <v>48.5241</v>
+        <v>52.1427</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>631.904</v>
+        <v>635.616</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3529,10 +3490,10 @@
         <v>239</v>
       </c>
       <c r="B238" s="0" t="n">
-        <v>48.829</v>
+        <v>52.4135</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>660.001</v>
+        <v>608.268</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3540,10 +3501,10 @@
         <v>240</v>
       </c>
       <c r="B239" s="0" t="n">
-        <v>49.1092</v>
+        <v>52.6458</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>620.847</v>
+        <v>633.63</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3551,10 +3512,10 @@
         <v>241</v>
       </c>
       <c r="B240" s="0" t="n">
-        <v>49.4213</v>
+        <v>52.8871</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>612.631</v>
+        <v>667.671</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3562,10 +3523,10 @@
         <v>242</v>
       </c>
       <c r="B241" s="0" t="n">
-        <v>49.7369</v>
+        <v>53.1124</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>620.585</v>
+        <v>670.721</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3573,10 +3534,10 @@
         <v>243</v>
       </c>
       <c r="B242" s="0" t="n">
-        <v>50.0389</v>
+        <v>53.3369</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>634.05</v>
+        <v>675.337</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3584,10 +3545,10 @@
         <v>244</v>
       </c>
       <c r="B243" s="0" t="n">
-        <v>50.3411</v>
+        <v>53.5726</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>625.554</v>
+        <v>637.489</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3595,10 +3556,10 @@
         <v>245</v>
       </c>
       <c r="B244" s="0" t="n">
-        <v>50.6092</v>
+        <v>53.7772</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>623.452</v>
+        <v>599.324</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3606,10 +3567,10 @@
         <v>246</v>
       </c>
       <c r="B245" s="0" t="n">
-        <v>50.9479</v>
+        <v>54.0323</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>683.678</v>
+        <v>441.639</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3617,141 +3578,9 @@
         <v>247</v>
       </c>
       <c r="B246" s="0" t="n">
-        <v>51.2524</v>
+        <v>54.2569</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>669.575</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="B247" s="0" t="n">
-        <v>51.5681</v>
-      </c>
-      <c r="C247" s="1" t="n">
-        <v>702.286</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="B248" s="0" t="n">
-        <v>51.854</v>
-      </c>
-      <c r="C248" s="1" t="n">
-        <v>700.086</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="B249" s="0" t="n">
-        <v>52.1427</v>
-      </c>
-      <c r="C249" s="1" t="n">
-        <v>635.616</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="B250" s="0" t="n">
-        <v>52.4135</v>
-      </c>
-      <c r="C250" s="1" t="n">
-        <v>608.268</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="B251" s="0" t="n">
-        <v>52.6458</v>
-      </c>
-      <c r="C251" s="1" t="n">
-        <v>633.63</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="B252" s="0" t="n">
-        <v>52.8871</v>
-      </c>
-      <c r="C252" s="1" t="n">
-        <v>667.671</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="B253" s="0" t="n">
-        <v>53.1124</v>
-      </c>
-      <c r="C253" s="1" t="n">
-        <v>670.721</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="B254" s="0" t="n">
-        <v>53.3369</v>
-      </c>
-      <c r="C254" s="1" t="n">
-        <v>675.337</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B255" s="0" t="n">
-        <v>53.5726</v>
-      </c>
-      <c r="C255" s="1" t="n">
-        <v>637.489</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="B256" s="0" t="n">
-        <v>53.7772</v>
-      </c>
-      <c r="C256" s="1" t="n">
-        <v>599.324</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="B257" s="0" t="n">
-        <v>54.0323</v>
-      </c>
-      <c r="C257" s="1" t="n">
-        <v>441.639</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="B258" s="0" t="n">
-        <v>54.2569</v>
-      </c>
-      <c r="C258" s="1" t="n">
         <v>493.403</v>
       </c>
     </row>
